--- a/WaterSamples/DOC_KW_08-25-2022.xlsx
+++ b/WaterSamples/DOC_KW_08-25-2022.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kriddie/Documents/Ecuador2022/WaterSamples/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0436FB3F-E867-4441-A98C-42D1C570572A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B0DD959-B36A-EB47-B938-E45268344B34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="29040" windowHeight="15840" xr2:uid="{A91DC3D8-3910-4D2F-84CC-4DF1DB472BF7}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="32">
   <si>
     <t>unlabeled- likely 21?</t>
   </si>
@@ -47,6 +47,90 @@
   </si>
   <si>
     <t>TDN (mg/L)</t>
+  </si>
+  <si>
+    <t>Bottle_no</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>site</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>notes</t>
+  </si>
+  <si>
+    <t>wetland 12</t>
+  </si>
+  <si>
+    <t>wetland 2</t>
+  </si>
+  <si>
+    <t>Gavi trib</t>
+  </si>
+  <si>
+    <t>preinjection</t>
+  </si>
+  <si>
+    <t>15m</t>
+  </si>
+  <si>
+    <t>Colm</t>
+  </si>
+  <si>
+    <t>btw stations 5&amp;6</t>
+  </si>
+  <si>
+    <t>wetland 01</t>
+  </si>
+  <si>
+    <t>colm</t>
+  </si>
+  <si>
+    <t>wetland 5</t>
+  </si>
+  <si>
+    <t>wetland 8</t>
+  </si>
+  <si>
+    <t>wetland 11</t>
+  </si>
+  <si>
+    <t>wetland 6</t>
+  </si>
+  <si>
+    <t>gavi-trib</t>
+  </si>
+  <si>
+    <t>wetland 9</t>
+  </si>
+  <si>
+    <t>wetland 10</t>
+  </si>
+  <si>
+    <t>wetland 3</t>
+  </si>
+  <si>
+    <t>gavi</t>
+  </si>
+  <si>
+    <t>preink</t>
+  </si>
+  <si>
+    <t>25m</t>
+  </si>
+  <si>
+    <t>wetland 4</t>
+  </si>
+  <si>
+    <t>gavi trib</t>
+  </si>
+  <si>
+    <t>* I think this date is wrong - should be 6/6/2022</t>
   </si>
 </sst>
 </file>
@@ -82,8 +166,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -398,10 +484,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C76853C5-1442-4A03-834A-72FFDC9ACB25}">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -410,7 +496,7 @@
     <col min="2" max="2" width="11.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -420,250 +506,538 @@
       <c r="C1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2">
+        <v>13</v>
+      </c>
+      <c r="B2">
+        <v>1.171</v>
+      </c>
+      <c r="C2">
+        <v>6.8640000000000007E-2</v>
+      </c>
+      <c r="D2">
+        <v>13</v>
+      </c>
+      <c r="E2" s="1">
+        <v>44770</v>
+      </c>
+      <c r="F2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="2">
+        <v>0.43124999999999997</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>1.7849999999999999</v>
+      </c>
+      <c r="C3">
+        <v>8.6760000000000004E-2</v>
+      </c>
+      <c r="D3">
+        <v>4</v>
+      </c>
+      <c r="E3" s="1">
+        <v>44743</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0.3979166666666667</v>
+      </c>
+      <c r="I3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>17</v>
+      </c>
+      <c r="B4">
+        <v>2.1190000000000002</v>
+      </c>
+      <c r="C4">
+        <v>0.10589999999999999</v>
+      </c>
+      <c r="D4">
+        <v>17</v>
+      </c>
+      <c r="E4" s="1">
+        <v>44743</v>
+      </c>
+      <c r="F4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="I4" t="s">
+        <v>28</v>
+      </c>
+      <c r="K4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>2.3029999999999999</v>
+      </c>
+      <c r="C5">
+        <v>8.0280000000000004E-2</v>
+      </c>
+      <c r="D5">
+        <v>8</v>
+      </c>
+      <c r="E5" s="1">
+        <v>44770</v>
+      </c>
+      <c r="F5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>2.4849999999999999</v>
+      </c>
+      <c r="C6">
+        <v>9.3170000000000003E-2</v>
+      </c>
+      <c r="D6">
+        <v>6</v>
+      </c>
+      <c r="E6" s="1">
+        <v>44768</v>
+      </c>
+      <c r="F6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0.4375</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>11</v>
+      </c>
+      <c r="B7">
+        <v>2.5070000000000001</v>
+      </c>
+      <c r="C7">
+        <v>0.14360000000000001</v>
+      </c>
+      <c r="D7">
+        <v>11</v>
+      </c>
+      <c r="E7" s="1">
+        <v>44763</v>
+      </c>
+      <c r="F7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8">
+        <v>2.5840000000000001</v>
+      </c>
+      <c r="C8">
+        <v>9.5890000000000003E-2</v>
+      </c>
+      <c r="D8">
+        <v>21</v>
+      </c>
+      <c r="F8" t="s">
+        <v>30</v>
+      </c>
+      <c r="G8" s="2">
+        <v>0.5805555555555556</v>
+      </c>
+      <c r="K8" s="1">
+        <v>44757</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>20</v>
+      </c>
+      <c r="B9">
+        <v>2.637</v>
+      </c>
+      <c r="C9">
+        <v>0.1101</v>
+      </c>
+      <c r="D9">
+        <v>20</v>
+      </c>
+      <c r="F9" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="2">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="I9" t="s">
+        <v>13</v>
+      </c>
+      <c r="K9" s="1">
+        <v>44757</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>12</v>
+      </c>
+      <c r="B10">
+        <v>2.7240000000000002</v>
+      </c>
+      <c r="C10">
+        <v>8.7429999999999994E-2</v>
+      </c>
+      <c r="D10">
+        <v>12</v>
+      </c>
+      <c r="E10" s="1">
+        <v>44768</v>
+      </c>
+      <c r="F10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>18</v>
+      </c>
+      <c r="B11">
+        <v>3.1080000000000001</v>
+      </c>
+      <c r="C11">
+        <v>0.10299999999999999</v>
+      </c>
+      <c r="D11">
+        <v>18</v>
+      </c>
+      <c r="E11" s="1">
+        <v>44763</v>
+      </c>
+      <c r="F11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" s="2">
+        <v>0.40625</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>3</v>
+      </c>
+      <c r="B12">
+        <v>3.5219999999999998</v>
+      </c>
+      <c r="C12">
+        <v>0.1623</v>
+      </c>
+      <c r="D12">
+        <v>3</v>
+      </c>
+      <c r="F12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" s="2">
+        <v>0.42083333333333334</v>
+      </c>
+      <c r="H12" t="s">
+        <v>12</v>
+      </c>
+      <c r="I12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>15</v>
+      </c>
+      <c r="B13">
+        <v>3.964</v>
+      </c>
+      <c r="C13">
+        <v>0.21190000000000001</v>
+      </c>
+      <c r="D13">
+        <v>15</v>
+      </c>
+      <c r="E13" s="1">
+        <v>44767</v>
+      </c>
+      <c r="F13" t="s">
+        <v>25</v>
+      </c>
+      <c r="G13" s="2">
+        <v>0.52638888888888891</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>22</v>
+      </c>
+      <c r="B14">
+        <v>4.0170000000000003</v>
+      </c>
+      <c r="C14">
+        <v>0.13569999999999999</v>
+      </c>
+      <c r="D14">
+        <v>22</v>
+      </c>
+      <c r="E14" s="1">
+        <v>44769</v>
+      </c>
+      <c r="F14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>16</v>
+      </c>
+      <c r="B15">
+        <v>4.0739999999999998</v>
+      </c>
+      <c r="C15">
+        <v>0.126</v>
+      </c>
+      <c r="D15">
+        <v>16</v>
+      </c>
+      <c r="E15" s="1">
+        <v>44748</v>
+      </c>
+      <c r="F15" t="s">
+        <v>26</v>
+      </c>
+      <c r="G15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="B16">
         <v>4.6050000000000004</v>
       </c>
-      <c r="C2">
+      <c r="C16">
         <v>0.15570000000000001</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3">
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16" s="1">
+        <v>44769</v>
+      </c>
+      <c r="F16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17">
         <v>2</v>
       </c>
-      <c r="B3">
+      <c r="B17">
         <v>6.9909999999999997</v>
       </c>
-      <c r="C3">
+      <c r="C17">
         <v>0.21809999999999999</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>3.5219999999999998</v>
-      </c>
-      <c r="C4">
-        <v>0.1623</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>1.7849999999999999</v>
-      </c>
-      <c r="C5">
-        <v>8.6760000000000004E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6">
+      <c r="D17">
+        <v>2</v>
+      </c>
+      <c r="E17" s="1">
+        <v>44767</v>
+      </c>
+      <c r="F17" t="s">
+        <v>10</v>
+      </c>
+      <c r="G17" s="2">
+        <v>0.47916666666666669</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18">
         <v>5</v>
       </c>
-      <c r="B6">
+      <c r="B18">
         <v>7.0739999999999998</v>
       </c>
-      <c r="C6">
+      <c r="C18">
         <v>0.25040000000000001</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>2.4849999999999999</v>
-      </c>
-      <c r="C7">
-        <v>9.3170000000000003E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8">
+      <c r="D18">
+        <v>5</v>
+      </c>
+      <c r="E18" s="1">
+        <v>44767</v>
+      </c>
+      <c r="F18" t="s">
+        <v>16</v>
+      </c>
+      <c r="G18" s="2">
+        <v>0.41666666666666669</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>10</v>
+      </c>
+      <c r="B19">
+        <v>7.4809999999999999</v>
+      </c>
+      <c r="C19">
+        <v>0.25609999999999999</v>
+      </c>
+      <c r="D19">
+        <v>10</v>
+      </c>
+      <c r="E19" s="1">
+        <v>44764</v>
+      </c>
+      <c r="F19" t="s">
+        <v>21</v>
+      </c>
+      <c r="G19" s="2">
+        <v>0.52083333333333337</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20">
         <v>7</v>
       </c>
-      <c r="B8">
+      <c r="B20">
         <v>7.8380000000000001</v>
       </c>
-      <c r="C8">
+      <c r="C20">
         <v>0.24590000000000001</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>2.3029999999999999</v>
-      </c>
-      <c r="C9">
-        <v>8.0280000000000004E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10">
+      <c r="D20">
+        <v>7</v>
+      </c>
+      <c r="E20" s="1">
+        <v>44764</v>
+      </c>
+      <c r="F20" t="s">
+        <v>18</v>
+      </c>
+      <c r="G20" s="2">
+        <v>0.53125</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>14</v>
+      </c>
+      <c r="B21">
+        <v>8.8670000000000009</v>
+      </c>
+      <c r="C21">
+        <v>0.57120000000000004</v>
+      </c>
+      <c r="D21">
+        <v>14</v>
+      </c>
+      <c r="E21" s="1">
+        <v>44770</v>
+      </c>
+      <c r="F21" t="s">
+        <v>24</v>
+      </c>
+      <c r="G21" s="2">
+        <v>0.46527777777777773</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>19</v>
+      </c>
+      <c r="B22">
+        <v>9.5739999999999998</v>
+      </c>
+      <c r="C22">
+        <v>0.3256</v>
+      </c>
+      <c r="D22">
+        <v>19</v>
+      </c>
+      <c r="E22" s="1">
+        <v>44764</v>
+      </c>
+      <c r="F22" t="s">
+        <v>29</v>
+      </c>
+      <c r="G22" s="2">
+        <v>0.45833333333333331</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23">
         <v>9</v>
       </c>
-      <c r="B10">
+      <c r="B23">
         <v>11.68</v>
       </c>
-      <c r="C10">
+      <c r="C23">
         <v>0.35809999999999997</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>7.4809999999999999</v>
-      </c>
-      <c r="C11">
-        <v>0.25609999999999999</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12">
-        <v>2.5070000000000001</v>
-      </c>
-      <c r="C12">
-        <v>0.14360000000000001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13">
-        <v>2.7240000000000002</v>
-      </c>
-      <c r="C13">
-        <v>8.7429999999999994E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14">
-        <v>1.171</v>
-      </c>
-      <c r="C14">
-        <v>6.8640000000000007E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15">
-        <v>8.8670000000000009</v>
-      </c>
-      <c r="C15">
-        <v>0.57120000000000004</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16">
-        <v>3.964</v>
-      </c>
-      <c r="C16">
-        <v>0.21190000000000001</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17">
-        <v>4.0739999999999998</v>
-      </c>
-      <c r="C17">
-        <v>0.126</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18">
-        <v>2.1190000000000002</v>
-      </c>
-      <c r="C18">
-        <v>0.10589999999999999</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="B19">
-        <v>3.1080000000000001</v>
-      </c>
-      <c r="C19">
-        <v>0.10299999999999999</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="B20">
-        <v>9.5739999999999998</v>
-      </c>
-      <c r="C20">
-        <v>0.3256</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21">
+      <c r="D23">
+        <v>9</v>
+      </c>
+      <c r="E23" s="1">
+        <v>44764</v>
+      </c>
+      <c r="F23" t="s">
         <v>20</v>
       </c>
-      <c r="B21">
-        <v>2.637</v>
-      </c>
-      <c r="C21">
-        <v>0.1101</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B22">
-        <v>2.5840000000000001</v>
-      </c>
-      <c r="C22">
-        <v>9.5890000000000003E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23">
-        <v>22</v>
-      </c>
-      <c r="B23">
-        <v>4.0170000000000003</v>
-      </c>
-      <c r="C23">
-        <v>0.13569999999999999</v>
+      <c r="G23" s="2">
+        <v>0.51041666666666663</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K23">
+    <sortCondition ref="B2:B23"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>